--- a/public/media/filtro.xlsx
+++ b/public/media/filtro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abela\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fubexbn-react\public\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFAA676-759C-48B3-AB86-5F036295B02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE07F14-6394-46D9-BE57-2D1928231D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6F207D5E-F572-463B-AA75-8A0418BDD1AE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DNI_CLIENTE</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>OBS_VENDEDOR</t>
+  </si>
+  <si>
+    <t>MONTO</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA855DC3-79B6-444F-996D-B7F0AD3EE045}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +415,7 @@
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,6 +423,9 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -446,7 +452,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
